--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,6 +923,14 @@
   </si>
   <si>
     <t>PREFLIGHT FAIL: MAG SENSORS INCONSISTENT</t>
+  </si>
+  <si>
+    <t>WARNING TRAFFIC %s at heading %d, land immediately", tr.callsign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVOIDING TRAFFIC %s heading %d, returning home", tr.callsign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1289,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2747,741 +2755,762 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>651</v>
-      </c>
-      <c r="B159" t="s">
-        <v>126</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B162" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B163" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B176" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>674</v>
+      </c>
+      <c r="B183" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>675</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>676</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>676</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>677</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>700</v>
-      </c>
-      <c r="B186" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B188" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B189" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B190" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B192" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B194" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B196" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>750</v>
-      </c>
-      <c r="B203" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="B205" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="B206" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B209" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B210" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B211" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B212" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B213" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="B214" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="B215" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="B216" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>812</v>
+        <v>777</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B218" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B220" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B221" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B222" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B223" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B224" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="B225" t="s">
-        <v>185</v>
-      </c>
-      <c r="D225" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B226" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="B227" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
+        <v>819</v>
+      </c>
+      <c r="B228" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>830</v>
+      </c>
+      <c r="B229" t="s">
+        <v>185</v>
+      </c>
+      <c r="D229" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>831</v>
+      </c>
+      <c r="B230" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>832</v>
+      </c>
+      <c r="B231" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>833</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B232" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1010</v>
-      </c>
-      <c r="B234" t="s">
-        <v>192</v>
-      </c>
-      <c r="C234" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1011</v>
-      </c>
-      <c r="B235" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1012</v>
-      </c>
-      <c r="B236" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1013</v>
-      </c>
-      <c r="B237" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B238" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B239" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B240" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1120</v>
+        <v>1013</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1121</v>
+        <v>1014</v>
       </c>
       <c r="B242" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1122</v>
+        <v>1015</v>
       </c>
       <c r="B243" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1123</v>
+        <v>1016</v>
       </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B246" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B247" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B248" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="B251" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1200</v>
+        <v>1127</v>
       </c>
       <c r="B252" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1250</v>
+        <v>1128</v>
       </c>
       <c r="B253" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>1129</v>
+      </c>
+      <c r="B254" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1140</v>
+      </c>
+      <c r="B255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1200</v>
+      </c>
+      <c r="B256" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1250</v>
+      </c>
+      <c r="B257" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>1300</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B258" t="s">
         <v>205</v>
       </c>
     </row>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="258">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -931,6 +931,19 @@
   <si>
     <t>AVOIDING TRAFFIC %s heading %d, returning home", tr.callsign</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL NAVIGATION FAILURE - CHECK SENSOR CALIBRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF INTERNAL CHECKS</t>
+  </si>
+  <si>
+    <t>QuadChute: large altitude error</t>
+  </si>
+  <si>
+    <t>QuadChute: loss of altitude</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1641,10 +1654,10 @@
         <v>223</v>
       </c>
       <c r="E22">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,10 +1668,10 @@
         <v>224</v>
       </c>
       <c r="E23">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,10 +1682,10 @@
         <v>225</v>
       </c>
       <c r="E24">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,10 +1696,10 @@
         <v>226</v>
       </c>
       <c r="E25">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,6 +1709,12 @@
       <c r="B26" t="s">
         <v>227</v>
       </c>
+      <c r="E26">
+        <v>1300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2419,295 +2438,295 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="B144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>601</v>
+        <v>500</v>
       </c>
       <c r="B145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>610</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>120</v>
+        <v>605</v>
+      </c>
+      <c r="B150" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>611</v>
-      </c>
-      <c r="B151" t="s">
-        <v>119</v>
+        <v>610</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B153" t="s">
         <v>121</v>
@@ -2715,802 +2734,826 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>630</v>
+        <v>620</v>
+      </c>
+      <c r="B159" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>651</v>
-      </c>
-      <c r="B160" t="s">
-        <v>126</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B176" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B177" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B179" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>674</v>
+      </c>
+      <c r="B184" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>675</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>676</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>676</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>677</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>700</v>
-      </c>
-      <c r="B187" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B188" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B189" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B193" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B195" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B196" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B197" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B198" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B200" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
+        <v>723</v>
+      </c>
+      <c r="B202" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>725</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>740</v>
-      </c>
-      <c r="B204" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B208" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B211" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B220" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B221" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B222" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B223" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B224" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B225" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B226" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B229" t="s">
-        <v>185</v>
-      </c>
-      <c r="D229" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B230" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="D230" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B231" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>832</v>
+      </c>
+      <c r="B232" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>833</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1010</v>
-      </c>
-      <c r="B238" t="s">
-        <v>192</v>
-      </c>
-      <c r="C238" t="s">
-        <v>3</v>
-      </c>
-      <c r="D238" t="s">
-        <v>6</v>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>834</v>
+      </c>
+      <c r="B234" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>835</v>
+      </c>
+      <c r="B235" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B239" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B240" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B242" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B243" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B244" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B246" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B250" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B251" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B254" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B255" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="B256" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="B257" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
+        <v>1250</v>
+      </c>
+      <c r="B258" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>1300</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>205</v>
       </c>
     </row>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="260">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,6 +944,13 @@
   </si>
   <si>
     <t>QuadChute: loss of altitude</t>
+  </si>
+  <si>
+    <t>Airspeed parameters invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedwingPositionControl</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2660,900 +2667,911 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>450</v>
+      </c>
+      <c r="B145" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>500</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>601</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>602</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>603</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>604</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>605</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>610</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>611</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>612</v>
-      </c>
-      <c r="B153" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>613</v>
       </c>
       <c r="B154" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>613</v>
+      </c>
+      <c r="B155" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>614</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>615</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>616</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>617</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>620</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>651</v>
-      </c>
-      <c r="B161" t="s">
-        <v>126</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B163" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B167" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B177" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B178" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B180" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>674</v>
+      </c>
+      <c r="B185" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>675</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>676</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187">
+        <v>676</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>677</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>700</v>
-      </c>
-      <c r="B188" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B190" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B191" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B196" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B198" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B199" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B201" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
+        <v>723</v>
+      </c>
+      <c r="B203" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>725</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>740</v>
-      </c>
-      <c r="B205" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B206" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B207" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B210" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B212" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B215" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B217" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B221" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B222" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B223" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B224" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B226" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B227" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B229" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B230" t="s">
-        <v>185</v>
-      </c>
-      <c r="D230" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B231" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="D231" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B232" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B233" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B234" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
+        <v>834</v>
+      </c>
+      <c r="B235" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>835</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1010</v>
-      </c>
-      <c r="B239" t="s">
-        <v>192</v>
-      </c>
-      <c r="C239" t="s">
-        <v>3</v>
-      </c>
-      <c r="D239" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B240" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B241" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B242" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B243" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B244" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B247" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B251" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B252" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B255" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B256" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="B257" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="B258" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
+        <v>1250</v>
+      </c>
+      <c r="B259" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>1300</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>205</v>
       </c>
     </row>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,6 @@
     <t>SYSTEM DOES NOT SUPPORT SHUTDOWN"</t>
   </si>
   <si>
-    <t>GPS signal noisy</t>
-  </si>
-  <si>
-    <t>GPS fix regained</t>
-  </si>
-  <si>
-    <t>GPS fix lost</t>
-  </si>
-  <si>
     <t>mission cannot be completed</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>ALL DATA LINKS LOST</t>
   </si>
   <si>
-    <t>Engine Failure</t>
-  </si>
-  <si>
     <t>DL and GPS lost: flight termination</t>
   </si>
   <si>
@@ -828,18 +816,6 @@
   </si>
   <si>
     <t>Mission start denied, no valid mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reading mission state failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baro healthy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baro failed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -951,6 +927,10 @@
   </si>
   <si>
     <t>FixedwingPositionControl</t>
+  </si>
+  <si>
+    <t>Precision landing denied, land manually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1317,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1349,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1366,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E2">
         <v>1010</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1392,13 +1372,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E3">
         <v>1011</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>1012</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,13 +1414,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>1014</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,10 +1428,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1455,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1487,7 +1467,7 @@
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1475,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1507,7 +1487,7 @@
         <v>1016</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,7 +1495,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E12">
         <v>1120</v>
@@ -1532,13 +1512,13 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>1121</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1546,13 +1526,13 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E14">
         <v>1122</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,13 +1540,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E15">
         <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,13 +1554,13 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>1124</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,13 +1568,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E17">
         <v>1125</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,13 +1582,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E18">
         <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,13 +1596,13 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E19">
         <v>1127</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,13 +1610,13 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E20">
         <v>1128</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,13 +1624,13 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E21">
         <v>1129</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,13 +1638,13 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E22">
         <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,13 +1652,13 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E23">
         <v>1140</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,13 +1666,13 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E24">
         <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,13 +1680,13 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E25">
         <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,13 +1694,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E26">
         <v>1300</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,100 +1708,100 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -1829,7 +1809,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1837,15 +1817,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -1853,63 +1833,63 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -1917,7 +1897,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1925,7 +1905,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -1933,479 +1913,479 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s">
         <v>83</v>
@@ -2413,7 +2393,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s">
         <v>84</v>
@@ -2421,7 +2401,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s">
         <v>85</v>
@@ -2429,7 +2409,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
         <v>86</v>
@@ -2437,543 +2417,543 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B125" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B133" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B137" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B138" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B139" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C139" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="B140" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>425</v>
+        <v>602</v>
       </c>
       <c r="B142" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>426</v>
+        <v>603</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="B144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>450</v>
+        <v>605</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
-      </c>
-      <c r="C145" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>500</v>
-      </c>
-      <c r="B146" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B147" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>615</v>
+      </c>
+      <c r="B151" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>605</v>
-      </c>
-      <c r="B151" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>610</v>
-      </c>
-      <c r="B152" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B152" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>617</v>
+      </c>
+      <c r="B153" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>611</v>
-      </c>
-      <c r="B153" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B154" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>613</v>
-      </c>
-      <c r="B155" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="B156" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="B157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="B158" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="B159" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>630</v>
+        <v>656</v>
+      </c>
+      <c r="B161" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B162" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B163" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B164" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B166" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B168" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B170" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B172" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B173" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B176" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B177" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B178" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B179" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B180" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>670</v>
-      </c>
-      <c r="B181" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>671</v>
-      </c>
-      <c r="B182" t="s">
-        <v>146</v>
+        <v>677</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="B183" t="s">
         <v>147</v>
@@ -2981,191 +2961,191 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="B186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>676</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="B187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>677</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>250</v>
+        <v>705</v>
+      </c>
+      <c r="B188" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B189" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B190" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="B195" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="B197" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>710</v>
-      </c>
-      <c r="B199" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="B200" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="B201" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="B202" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>761</v>
+      </c>
+      <c r="B205" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="B208" t="s">
         <v>162</v>
@@ -3173,7 +3153,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="B209" t="s">
         <v>163</v>
@@ -3181,31 +3161,31 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B213" t="s">
         <v>168</v>
@@ -3213,366 +3193,318 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="B214" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>773</v>
+        <v>810</v>
       </c>
       <c r="B215" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>774</v>
+        <v>811</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>775</v>
+        <v>812</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>776</v>
+        <v>813</v>
       </c>
       <c r="B218" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>777</v>
+        <v>814</v>
       </c>
       <c r="B219" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="B220" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B221" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B222" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B223" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B224" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="D225" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="B227" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="B228" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="B229" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="B230" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>830</v>
-      </c>
-      <c r="B231" t="s">
-        <v>185</v>
-      </c>
-      <c r="D231" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>831</v>
-      </c>
-      <c r="B232" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>832</v>
-      </c>
-      <c r="B233" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>833</v>
+        <v>1010</v>
       </c>
       <c r="B234" t="s">
         <v>188</v>
       </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>834</v>
+        <v>1011</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>835</v>
+        <v>1012</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1013</v>
+      </c>
+      <c r="B237" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1014</v>
+      </c>
+      <c r="B238" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1015</v>
+      </c>
+      <c r="B239" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
-      </c>
-      <c r="C240" t="s">
-        <v>3</v>
-      </c>
-      <c r="D240" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1011</v>
+        <v>1120</v>
       </c>
       <c r="B241" t="s">
-        <v>193</v>
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1012</v>
+        <v>1121</v>
       </c>
       <c r="B242" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1013</v>
+        <v>1122</v>
       </c>
       <c r="B243" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1014</v>
+        <v>1123</v>
       </c>
       <c r="B244" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1015</v>
+        <v>1124</v>
       </c>
       <c r="B245" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1016</v>
+        <v>1125</v>
       </c>
       <c r="B246" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="B248" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="B249" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="B252" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1126</v>
+        <v>1250</v>
       </c>
       <c r="B253" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1127</v>
+        <v>1300</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1128</v>
-      </c>
-      <c r="B255" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1129</v>
-      </c>
-      <c r="B256" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1140</v>
-      </c>
-      <c r="B257" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1200</v>
-      </c>
-      <c r="B258" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1250</v>
-      </c>
-      <c r="B259" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1300</v>
-      </c>
-      <c r="B260" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UAV\GroundStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36D41E-F8CC-4D7C-A906-6881ECBA1EC9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="258">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,9 +90,6 @@
     <t>ALL DATA LINKS LOST</t>
   </si>
   <si>
-    <t>DL and GPS lost: flight termination</t>
-  </si>
-  <si>
     <t>RC and GPS lost: flight termination</t>
   </si>
   <si>
@@ -205,9 +203,6 @@
     <t>CRITICAL BATTERY, RETURN TO LAUNCH ADVISED!</t>
   </si>
   <si>
-    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
-  </si>
-  <si>
     <t>DANGEROUS BATTERY LEVEL, LANDING ADVISED!</t>
   </si>
   <si>
@@ -551,9 +546,6 @@
   </si>
   <si>
     <t>ERROR DO JUMP is cycling, giving up</t>
-  </si>
-  <si>
-    <t>ERROR: can't save mission state</t>
   </si>
   <si>
     <t>ERROR: invalid mission state</t>
@@ -930,6 +922,33 @@
   </si>
   <si>
     <t>Precision landing denied, land manually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control high latency failed, no hl telemetry available</t>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionReverse: Got a non-position mission item, ignoring it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL and GPS lost: flight termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1329,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1346,19 +1365,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>1010</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1372,13 +1391,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>1011</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,13 +1405,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>1012</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,13 +1419,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E6">
         <v>1014</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,10 +1447,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
         <v>237</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1439,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,7 +1466,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,7 +1474,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1467,7 +1486,7 @@
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1494,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1487,7 +1506,7 @@
         <v>1016</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1514,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E12">
         <v>1120</v>
@@ -1512,13 +1531,13 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13">
         <v>1121</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,13 +1545,13 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>1122</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,13 +1559,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E15">
         <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,13 +1573,13 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16">
         <v>1124</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,13 +1587,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E17">
         <v>1125</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,13 +1601,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,13 +1615,13 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>1127</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,13 +1629,13 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E20">
         <v>1128</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,13 +1643,13 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E21">
         <v>1129</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,13 +1657,13 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22">
         <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,13 +1671,13 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E23">
         <v>1140</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,13 +1685,13 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24">
         <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,13 +1699,13 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E25">
         <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,13 +1713,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26">
         <v>1300</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,1803 +1727,1827 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B113" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B119" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B123" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B124" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B138" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
-      </c>
-      <c r="C139" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>601</v>
+        <v>427</v>
       </c>
       <c r="B141" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>602</v>
+        <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B144" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B145" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>610</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>116</v>
+        <v>603</v>
+      </c>
+      <c r="B146" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B147" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>613</v>
-      </c>
-      <c r="B149" t="s">
-        <v>117</v>
+        <v>610</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>630</v>
+        <v>616</v>
+      </c>
+      <c r="B155" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>653</v>
-      </c>
-      <c r="B158" t="s">
-        <v>123</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B160" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B166" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B171" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B172" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B173" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B174" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B175" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B176" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B177" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B179" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B180" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>676</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="B181" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>677</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>243</v>
+        <v>674</v>
+      </c>
+      <c r="B182" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>701</v>
-      </c>
-      <c r="B184" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>702</v>
-      </c>
-      <c r="B185" t="s">
-        <v>148</v>
+        <v>677</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B186" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B188" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B189" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B190" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B191" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B192" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B193" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B194" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B196" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B197" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>722</v>
+      </c>
+      <c r="B199" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="B200" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B201" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>742</v>
-      </c>
-      <c r="B202" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B203" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B204" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="B205" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="B206" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B207" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B210" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B212" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B220" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B221" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B222" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B223" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B224" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B225" t="s">
-        <v>181</v>
-      </c>
-      <c r="D225" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="B226" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="B227" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B228" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="D228" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>832</v>
+      </c>
+      <c r="B230" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>833</v>
+      </c>
+      <c r="B231" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>834</v>
+      </c>
+      <c r="B232" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>835</v>
       </c>
-      <c r="B230" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1010</v>
-      </c>
-      <c r="B234" t="s">
-        <v>188</v>
-      </c>
-      <c r="C234" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1011</v>
-      </c>
-      <c r="B235" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1012</v>
-      </c>
-      <c r="B236" t="s">
-        <v>190</v>
+      <c r="B233" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B237" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B238" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B239" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B240" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1120</v>
+        <v>1014</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1121</v>
+        <v>1015</v>
       </c>
       <c r="B242" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1122</v>
+        <v>1016</v>
       </c>
       <c r="B243" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B246" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B247" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B250" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="B251" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1200</v>
+        <v>1128</v>
       </c>
       <c r="B252" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1250</v>
+        <v>1129</v>
       </c>
       <c r="B253" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>1140</v>
+      </c>
+      <c r="B254" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1200</v>
+      </c>
+      <c r="B255" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1250</v>
+      </c>
+      <c r="B256" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>1300</v>
       </c>
-      <c r="B254" t="s">
-        <v>201</v>
+      <c r="B257" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UAV\GroundStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36D41E-F8CC-4D7C-A906-6881ECBA1EC9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DB9B9-E76E-481D-B80F-1A4AB69546A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="260">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,9 +72,6 @@
     <t>CRITICAL BATTERY, RETURNING TO LAND</t>
   </si>
   <si>
-    <t>SYSTEM DOES NOT SUPPORT SHUTDOWN"</t>
-  </si>
-  <si>
     <t>mission cannot be completed</t>
   </si>
   <si>
@@ -179,24 +176,12 @@
     <t>NOT ARMING: Preflight checks failed</t>
   </si>
   <si>
-    <t>CRITICAL BATTERY, RETURNING TO LAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRITICAL BATTERY, RTL FAILED</t>
   </si>
   <si>
-    <t>CRITICAL BATTERY, RTL FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRITICAL BATTERY, LANDING AT CURRENT POSITION</t>
   </si>
   <si>
-    <t>CRITICAL BATTERY, LANDING AT CURRENT POSITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRITICAL BATTERY, LANDING FAILED</t>
   </si>
   <si>
@@ -210,508 +195,504 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ERROR: Retry calibration (sphere NaN, #%u)", cur_mag</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: NO MAG SENSOR #%u", instance</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: MAG #%u UNCALIBRATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: MAG #%u SELFTEST FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: ACCELS INCONSISTENT - CHECK CAL</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: GYROS INCONSISTENT - CHECK CAL</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: NO ACCEL SENSOR #%u", instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: ACCEL #%u UNCALIBRATED", instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: ACCEL #%u TEST FAILED: %d", instance, ret</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: NO GYRO SENSOR #%u", instance</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: GYRO #%u UNCALIBRATED", instance</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: GYRO #%u SELFTEST FAILED", instance</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: NO BARO SENSOR #%u", instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: AIRSPEED SENSOR MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: AIRSPEED SENSOR COMM ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: GPS RECEIVER MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF HGT ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF VEL ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF HORIZ POS ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF NOT USING GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: GPS QUALITY CHECKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF YAW ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF HIGH IMU ACCEL BIAS</t>
+  </si>
+  <si>
+    <t>PREFLIGHT FAIL: EKF HIGH IMU GYRO BIAS</t>
+  </si>
+  <si>
+    <t>Warning: Primary compass not found</t>
+  </si>
+  <si>
+    <t>Warning: Primary accelerometer not found</t>
+  </si>
+  <si>
+    <t>Warning: Primary gyro not found</t>
+  </si>
+  <si>
+    <t>warning: primary barometer not operational</t>
+  </si>
+  <si>
+    <t>RC calibration check failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no inputs, aborting</t>
+  </si>
+  <si>
+    <t>TRIM: PARAM SET FAIL</t>
+  </si>
+  <si>
+    <t>NOT ARMING: Press safety switch first!</t>
+  </si>
+  <si>
+    <t>NOT ARMING: Connect power module.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT ARMING: Avionics power low: %6.2f Volt",(double )avionics_power_rail_voltage</t>
+  </si>
+  <si>
+    <t>CAUTION: Avionics power low: %6.2f Volt</t>
+  </si>
+  <si>
+    <t>CAUTION: Avionics power high: %6.2f Volt</t>
+  </si>
+  <si>
+    <t>Preflight check resolved, reboot before arming</t>
+  </si>
+  <si>
+    <t>Preflight check failed, refusing to arm</t>
+  </si>
+  <si>
+    <t>Preflight check resolved, reboot to complete</t>
+  </si>
+  <si>
+    <t>Not ready to fly: Sensors not set up correctly</t>
+  </si>
+  <si>
+    <t>TRANSITION_DENIED: %s - %s"</t>
+  </si>
+  <si>
+    <t>Not switching off HIL (safety)</t>
+  </si>
+  <si>
+    <t>Switched to ON hil state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMING DENIED: Flying with USB is not safe</t>
+  </si>
+  <si>
+    <t>ARMING DENIED: LOW BATTERY</t>
+  </si>
+  <si>
+    <t>ARMING DENIED: valid mission required</t>
+  </si>
+  <si>
+    <t>ARMING DENIED: valid mission required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no offboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no RC and no offboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no gps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no gps cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no local position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no global position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failsafe enabled no datalink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[logger] Not logging; SD almost full: %u MiB</t>
+  </si>
+  <si>
+    <t>too many DL losses, fly to airfield home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly to comms hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly to airfield home, comms hold skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly to airfield home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no manual control, terminating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum distance from home exceeded by %.1f m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum altitude above home exceeded by %.1f m"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly in forbidden place %d,type %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly in forbidden place %d,type %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence load error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geofence import error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS failed: open loop loiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: Takeoff altitude too low</t>
+  </si>
+  <si>
+    <t>Geofence requires valid home position</t>
+  </si>
+  <si>
+    <t>Geofence requires valid home position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geofence violation for waypoint %d</t>
+  </si>
+  <si>
+    <t>Mission rejected: No home pos, WP %d uses rel alt</t>
+  </si>
+  <si>
+    <t>Warning: No home pos, WP %d uses rel alt</t>
+  </si>
+  <si>
+    <t>Rejecting mission: Waypoint %d below home</t>
+  </si>
+  <si>
+    <t>Warning: Waypoint %d below home</t>
+  </si>
+  <si>
+    <t>Mission rejected: Cannot access SD card</t>
+  </si>
+  <si>
+    <t>Rejecting mission item %i: unsupported cmd: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actuator number %d is out of bounds 0..5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actuator value %d is out of bounds -PWM_DEFAULT_MAX..PWM_DEFAULT_MAX</t>
+  </si>
+  <si>
+    <t>Mission rejected: starts with landing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: Takeoff altitude too low!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: more than one land start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: adjust landing approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move down %.1fm or move further away by %.1fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: landing above last waypoin</t>
+  </si>
+  <si>
+    <t>Mission rejected: waypoint within landing flare</t>
+  </si>
+  <si>
+    <t>Mission rejected: need landing approach</t>
+  </si>
+  <si>
+    <t>Invalid mission: starts with land waypoint</t>
+  </si>
+  <si>
+    <t>Mission rejected: land start required</t>
+  </si>
+  <si>
+    <t>Mission rejected: invalid land start</t>
+  </si>
+  <si>
+    <t>Warning: First waypoint very far: %d m</t>
+  </si>
+  <si>
+    <t>First waypoint too far: %d m &gt; %d, refusing mission</t>
+  </si>
+  <si>
+    <t>ERROR DO JUMP waypoint could not be written</t>
+  </si>
+  <si>
+    <t>no valid mission available, loitering</t>
+  </si>
+  <si>
+    <t>ERROR DO JUMP is cycling, giving up</t>
+  </si>
+  <si>
+    <t>ERROR: invalid mission state</t>
+  </si>
+  <si>
+    <t>ERROR: could not read mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed clearing geofence</t>
+  </si>
+  <si>
+    <t>Geofence violation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unable to reach heading within timeout</t>
+  </si>
+  <si>
+    <t>rc loss, loitering</t>
+  </si>
+  <si>
+    <t>rc loss, terminating</t>
+  </si>
+  <si>
+    <t>RC not regained, terminating</t>
+  </si>
+  <si>
+    <t>Already landed, not executing RTL</t>
+  </si>
+  <si>
+    <t>Using minimum takeoff altitude: %.2f m</t>
+  </si>
+  <si>
+    <t>Already higher than takeoff altitude</t>
+  </si>
+  <si>
+    <t>[blackbox] ERR: max files %d</t>
+  </si>
+  <si>
+    <t>[blackbox] failed: %s</t>
+  </si>
+  <si>
+    <t>[blackbox] failed: %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[blackbox] error creating log dir</t>
+  </si>
+  <si>
+    <t>[blackbox] no microSD card, disabling logging</t>
+  </si>
+  <si>
+    <t>[blackbox] no space on MicroSD: %u MiB</t>
+  </si>
+  <si>
+    <t>[blackbox] space on MicroSD low: %u MiB</t>
+  </si>
+  <si>
+    <t>HIGH VIBRATION! g: %d a: %d m: %d</t>
+  </si>
+  <si>
+    <t>ERR: RC_MAP_TRANS_SW PARAMETER MISSING</t>
+  </si>
+  <si>
+    <t>ERR: transition switch (RC_MAP_TRANS_SW) not set</t>
+  </si>
+  <si>
+    <t>RC ERR: PARAM %s MISSING</t>
+  </si>
+  <si>
+    <t>RC ERR: %s &gt;= # CHANS</t>
+  </si>
+  <si>
+    <t>RC ERR: Mandatory %s is unmapped</t>
+  </si>
+  <si>
+    <t>RC ERR: RC_%d_MIN &lt; %u</t>
+  </si>
+  <si>
+    <t>RC ERR: RC_%d_MAX &gt; %u</t>
+  </si>
+  <si>
+    <t>RC ERR: RC_%d_TRIM &lt; MIN (%d/%d)</t>
+  </si>
+  <si>
+    <t>RC ERR: RC_%d_TRIM &gt; MAX (%d/%d)</t>
+  </si>
+  <si>
+    <t>RC ERR: RC_%d_DZ &gt; %u</t>
+  </si>
+  <si>
+    <t>vtol_att_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum altitude breached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum pitch angle exceeded</t>
+  </si>
+  <si>
+    <t>Maximum roll angle exceeded</t>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO VERSION MISMATCH, PLEASE UPGRADE SOFTWARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to communicate with IO, abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO protocol/firmware mismatch, abort.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[IO] config read fail, abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVERING FROM FMU IN-AIR RESTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to recover from in-air restart (1), abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to recover from in-air restart (2), abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, LANDING ADVISED!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MANUAL KILL SWITCH OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR: Retry calibration (sphere NaN, #%u)", cur_mag</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: NO MAG SENSOR #%u", instance</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: MAG #%u UNCALIBRATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: MAG #%u SELFTEST FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: ACCELS INCONSISTENT - CHECK CAL</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: GYROS INCONSISTENT - CHECK CAL</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: NO ACCEL SENSOR #%u", instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: ACCEL #%u UNCALIBRATED", instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: ACCEL #%u TEST FAILED: %d", instance, ret</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: NO GYRO SENSOR #%u", instance</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: GYRO #%u UNCALIBRATED", instance</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: GYRO #%u SELFTEST FAILED", instance</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: NO BARO SENSOR #%u", instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: AIRSPEED SENSOR MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: AIRSPEED SENSOR COMM ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: GPS RECEIVER MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF HGT ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF VEL ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF HORIZ POS ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF NOT USING GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: GPS QUALITY CHECKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF YAW ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF HIGH IMU ACCEL BIAS</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: EKF HIGH IMU GYRO BIAS</t>
-  </si>
-  <si>
-    <t>Warning: Primary compass not found</t>
-  </si>
-  <si>
-    <t>Warning: Primary accelerometer not found</t>
-  </si>
-  <si>
-    <t>Warning: Primary gyro not found</t>
-  </si>
-  <si>
-    <t>warning: primary barometer not operational</t>
-  </si>
-  <si>
-    <t>RC calibration check failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no inputs, aborting</t>
-  </si>
-  <si>
-    <t>TRIM: PARAM SET FAIL</t>
-  </si>
-  <si>
-    <t>NOT ARMING: Press safety switch first!</t>
-  </si>
-  <si>
-    <t>NOT ARMING: Connect power module.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT ARMING: Avionics power low: %6.2f Volt",(double )avionics_power_rail_voltage</t>
-  </si>
-  <si>
-    <t>CAUTION: Avionics power low: %6.2f Volt</t>
-  </si>
-  <si>
-    <t>CAUTION: Avionics power high: %6.2f Volt</t>
-  </si>
-  <si>
-    <t>Preflight check resolved, reboot before arming</t>
-  </si>
-  <si>
-    <t>Preflight check failed, refusing to arm</t>
-  </si>
-  <si>
-    <t>Preflight check resolved, reboot to complete</t>
-  </si>
-  <si>
-    <t>Not ready to fly: Sensors not set up correctly</t>
-  </si>
-  <si>
-    <t>TRANSITION_DENIED: %s - %s"</t>
-  </si>
-  <si>
-    <t>Not switching off HIL (safety)</t>
-  </si>
-  <si>
-    <t>Switched to ON hil state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMING DENIED: Flying with USB is not safe</t>
-  </si>
-  <si>
-    <t>ARMING DENIED: LOW BATTERY</t>
-  </si>
-  <si>
-    <t>ARMING DENIED: valid mission required</t>
-  </si>
-  <si>
-    <t>ARMING DENIED: valid mission required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no offboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no RC and no offboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no gps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no gps cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no local position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no global position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failsafe enabled no datalink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[logger] Not logging; SD almost full: %u MiB</t>
-  </si>
-  <si>
-    <t>too many DL losses, fly to airfield home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly to comms hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly to airfield home, comms hold skipped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly to airfield home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no manual control, terminating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum distance from home exceeded by %.1f m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum altitude above home exceeded by %.1f m"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fly in forbidden place %d,type %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fly in forbidden place %d,type %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence load error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geofence import error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS failed: open loop loiter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission rejected: Takeoff altitude too low</t>
-  </si>
-  <si>
-    <t>Geofence requires valid home position</t>
-  </si>
-  <si>
-    <t>Geofence requires valid home position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geofence violation for waypoint %d</t>
-  </si>
-  <si>
-    <t>Mission rejected: No home pos, WP %d uses rel alt</t>
-  </si>
-  <si>
-    <t>Warning: No home pos, WP %d uses rel alt</t>
-  </si>
-  <si>
-    <t>Rejecting mission: Waypoint %d below home</t>
-  </si>
-  <si>
-    <t>Warning: Waypoint %d below home</t>
-  </si>
-  <si>
-    <t>Mission rejected: Cannot access SD card</t>
-  </si>
-  <si>
-    <t>Rejecting mission item %i: unsupported cmd: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actuator number %d is out of bounds 0..5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actuator value %d is out of bounds -PWM_DEFAULT_MAX..PWM_DEFAULT_MAX</t>
-  </si>
-  <si>
-    <t>Mission rejected: starts with landing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission rejected: Takeoff altitude too low!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission rejected: more than one land start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission rejected: adjust landing approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move down %.1fm or move further away by %.1fm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission rejected: landing above last waypoin</t>
-  </si>
-  <si>
-    <t>Mission rejected: waypoint within landing flare</t>
-  </si>
-  <si>
-    <t>Mission rejected: need landing approach</t>
-  </si>
-  <si>
-    <t>Invalid mission: starts with land waypoint</t>
-  </si>
-  <si>
-    <t>Mission rejected: land start required</t>
-  </si>
-  <si>
-    <t>Mission rejected: invalid land start</t>
-  </si>
-  <si>
-    <t>Warning: First waypoint very far: %d m</t>
-  </si>
-  <si>
-    <t>First waypoint too far: %d m &gt; %d, refusing mission</t>
-  </si>
-  <si>
-    <t>ERROR DO JUMP waypoint could not be written</t>
-  </si>
-  <si>
-    <t>no valid mission available, loitering</t>
-  </si>
-  <si>
-    <t>ERROR DO JUMP is cycling, giving up</t>
-  </si>
-  <si>
-    <t>ERROR: invalid mission state</t>
-  </si>
-  <si>
-    <t>ERROR: could not read mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed clearing geofence</t>
-  </si>
-  <si>
-    <t>Geofence violation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unable to reach heading within timeout</t>
-  </si>
-  <si>
-    <t>rc loss, loitering</t>
-  </si>
-  <si>
-    <t>rc loss, terminating</t>
-  </si>
-  <si>
-    <t>RC not regained, terminating</t>
-  </si>
-  <si>
-    <t>Already landed, not executing RTL</t>
-  </si>
-  <si>
-    <t>Using minimum takeoff altitude: %.2f m</t>
-  </si>
-  <si>
-    <t>Already higher than takeoff altitude</t>
-  </si>
-  <si>
-    <t>[blackbox] ERR: max files %d</t>
-  </si>
-  <si>
-    <t>[blackbox] failed: %s</t>
-  </si>
-  <si>
-    <t>[blackbox] failed: %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[blackbox] error creating log dir</t>
-  </si>
-  <si>
-    <t>[blackbox] no microSD card, disabling logging</t>
-  </si>
-  <si>
-    <t>[blackbox] no space on MicroSD: %u MiB</t>
-  </si>
-  <si>
-    <t>[blackbox] space on MicroSD low: %u MiB</t>
-  </si>
-  <si>
-    <t>HIGH VIBRATION! g: %d a: %d m: %d</t>
-  </si>
-  <si>
-    <t>ERR: RC_MAP_TRANS_SW PARAMETER MISSING</t>
-  </si>
-  <si>
-    <t>ERR: transition switch (RC_MAP_TRANS_SW) not set</t>
-  </si>
-  <si>
-    <t>RC ERR: PARAM %s MISSING</t>
-  </si>
-  <si>
-    <t>RC ERR: %s &gt;= # CHANS</t>
-  </si>
-  <si>
-    <t>RC ERR: Mandatory %s is unmapped</t>
-  </si>
-  <si>
-    <t>RC ERR: RC_%d_MIN &lt; %u</t>
-  </si>
-  <si>
-    <t>RC ERR: RC_%d_MAX &gt; %u</t>
-  </si>
-  <si>
-    <t>RC ERR: RC_%d_TRIM &lt; MIN (%d/%d)</t>
-  </si>
-  <si>
-    <t>RC ERR: RC_%d_TRIM &gt; MAX (%d/%d)</t>
-  </si>
-  <si>
-    <t>RC ERR: RC_%d_DZ &gt; %u</t>
-  </si>
-  <si>
-    <t>vtol_att_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transition timeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum altitude breached</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum pitch angle exceeded</t>
-  </si>
-  <si>
-    <t>Maximum roll angle exceeded</t>
-  </si>
-  <si>
-    <t>消息id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO VERSION MISMATCH, PLEASE UPGRADE SOFTWARE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed to communicate with IO, abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO protocol/firmware mismatch, abort.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[IO] config read fail, abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECOVERING FROM FMU IN-AIR RESTART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed to recover from in-air restart (1), abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed to recover from in-air restart (2), abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL, LANDING ADVISED!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUAL KILL SWITCH OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Engine failure. Loitering down</t>
   </si>
   <si>
@@ -812,22 +793,6 @@
   </si>
   <si>
     <t>USB disconnected, rebooting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW BATTERY, RETURN TO LAND ADVISED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW BATTERY, TAKEOFF DISCOURAGED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY, SHUT SYSTEM DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUSLY LOW BATTERY, SHUT SYSTEM DOWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -928,27 +893,71 @@
     <t>Control high latency failed, no hl telemetry available</t>
   </si>
   <si>
+    <t>MissionReverse: Got a non-position mission item, ignoring it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL and GPS lost: flight termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, RETURNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW BATTERY, RETURN ADVISED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURN ADVISED!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURN FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, LANDING AT CURRENT POSITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY,LANDING FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, RETURN FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MissionReverse: Got a non-position mission item, ignoring it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL and GPS lost: flight termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
+    <t>DANGEROUS BATTERY LEVEL,  LANDING FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attitude failure detected: force failsafe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1348,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1365,19 +1374,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>1010</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1391,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>1011</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,13 +1414,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>1012</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E5">
         <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>1014</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1483,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1486,7 +1495,7 @@
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,7 +1503,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1506,7 +1515,7 @@
         <v>1016</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,7 +1523,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>1120</v>
@@ -1531,13 +1540,13 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E13">
         <v>1121</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,13 +1554,13 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E14">
         <v>1122</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,13 +1568,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E15">
         <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,13 +1582,13 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E16">
         <v>1124</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,13 +1596,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E17">
         <v>1125</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,13 +1610,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E18">
         <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,13 +1624,13 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E19">
         <v>1127</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,13 +1638,13 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E20">
         <v>1128</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,13 +1652,13 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E21">
         <v>1129</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,13 +1666,13 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E22">
         <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,13 +1680,13 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E23">
         <v>1140</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,13 +1694,13 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E24">
         <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,13 +1708,13 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E25">
         <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,13 +1722,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E26">
         <v>1300</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,7 +1736,7 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,7 +1744,7 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,108 +1752,108 @@
         <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1852,159 +1861,159 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -2012,1542 +2021,1521 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B125" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B130" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B137" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>239</v>
+      </c>
+      <c r="C140" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>450</v>
+        <v>601</v>
       </c>
       <c r="B142" t="s">
-        <v>248</v>
-      </c>
-      <c r="C142" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>604</v>
-      </c>
-      <c r="B147" t="s">
-        <v>111</v>
+        <v>610</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>610</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>114</v>
+        <v>612</v>
+      </c>
+      <c r="B149" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B153" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="B156" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>630</v>
+        <v>653</v>
+      </c>
+      <c r="B158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B165" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B166" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B167" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B168" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B169" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B170" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B174" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B175" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B180" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>673</v>
-      </c>
-      <c r="B181" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>674</v>
-      </c>
-      <c r="B182" t="s">
-        <v>143</v>
+        <v>677</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="B183" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>676</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>677</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>240</v>
+        <v>702</v>
+      </c>
+      <c r="B185" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B186" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B187" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B188" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B189" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B190" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="B195" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>722</v>
-      </c>
-      <c r="B199" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="B200" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="B201" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>742</v>
+      </c>
+      <c r="B202" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B203" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="B204" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="B205" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="B206" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="B207" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="B208" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B209" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B211" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B213" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="B214" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="B215" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="B216" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B218" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B219" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B220" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B221" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B223" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B224" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="B225" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D225" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="B226" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="B227" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B228" t="s">
-        <v>178</v>
-      </c>
-      <c r="D228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B229" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1010</v>
+      </c>
+      <c r="B234" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>833</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1011</v>
+      </c>
+      <c r="B235" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>834</v>
-      </c>
-      <c r="B232" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>835</v>
-      </c>
-      <c r="B233" t="s">
-        <v>247</v>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1012</v>
+      </c>
+      <c r="B236" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B237" t="s">
-        <v>185</v>
-      </c>
-      <c r="C237" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B238" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B239" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B240" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1014</v>
+        <v>1120</v>
       </c>
       <c r="B241" t="s">
-        <v>189</v>
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1015</v>
+        <v>1121</v>
       </c>
       <c r="B242" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1016</v>
+        <v>1122</v>
       </c>
       <c r="B243" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B248" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B250" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1128</v>
+        <v>1200</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1129</v>
+        <v>1250</v>
       </c>
       <c r="B253" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1200</v>
-      </c>
-      <c r="B255" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1250</v>
-      </c>
-      <c r="B256" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1300</v>
-      </c>
-      <c r="B257" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UAV\GroundStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DB9B9-E76E-481D-B80F-1A4AB69546A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B94A6-2D34-4789-9597-CB4E8C8F1475}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="263">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,17 +196,6 @@
   </si>
   <si>
     <t>ERROR: Retry calibration (sphere NaN, #%u)", cur_mag</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: NO MAG SENSOR #%u", instance</t>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: MAG #%u UNCALIBRATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFLIGHT FAIL: MAG #%u SELFTEST FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PREFLIGHT FAIL: ACCELS INCONSISTENT - CHECK CAL</t>
@@ -855,9 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PREFLIGHT FAIL: MAG SENSORS INCONSISTENT</t>
-  </si>
-  <si>
     <t>WARNING TRAFFIC %s at heading %d, land immediately", tr.callsign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,7 +943,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attitude failure detected: force failsafe</t>
+    <t>Preflight Fail: no valid data from Compass #%u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass #%u uncalibrated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass Sensors inconsistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass Sensor #%u missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM DOES NOT SUPPORT SHUTDOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUSLY LOW BATTERY, SHUT SYSTEM DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping compass use, check calibration on landing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1357,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1374,19 +1388,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2">
         <v>1010</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1400,13 +1414,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>1011</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,13 +1428,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>1012</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6">
         <v>1014</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,10 +1470,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
         <v>225</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1489,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,7 +1497,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1495,7 +1509,7 @@
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,7 +1517,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1515,7 +1529,7 @@
         <v>1016</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,7 +1537,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E12">
         <v>1120</v>
@@ -1540,7 +1554,7 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13">
         <v>1121</v>
@@ -1554,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>1122</v>
@@ -1568,7 +1582,7 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E15">
         <v>1123</v>
@@ -1582,7 +1596,7 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E16">
         <v>1124</v>
@@ -1596,13 +1610,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17">
         <v>1125</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,13 +1624,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,7 +1638,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E19">
         <v>1127</v>
@@ -1638,7 +1652,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>1128</v>
@@ -1652,13 +1666,13 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E21">
         <v>1129</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,13 +1680,13 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E22">
         <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,7 +1694,7 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23">
         <v>1140</v>
@@ -1694,13 +1708,13 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E24">
         <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,13 +1722,13 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E25">
         <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,13 +1736,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E26">
         <v>1300</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1750,7 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,7 +1758,7 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,140 +1766,140 @@
         <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -1893,1649 +1907,1673 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B122" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B134" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B135" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
-      </c>
-      <c r="C140" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>235</v>
+      </c>
+      <c r="C142" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>602</v>
+        <v>500</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B144" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B145" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B146" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>610</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>109</v>
+        <v>604</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B148" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>612</v>
-      </c>
-      <c r="B149" t="s">
-        <v>110</v>
+        <v>610</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B152" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B154" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B155" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B156" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B160" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B161" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B162" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B165" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B167" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B168" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B170" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B172" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B175" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B176" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B177" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B178" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B179" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
+        <v>673</v>
+      </c>
+      <c r="B180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>674</v>
+      </c>
+      <c r="B181" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>675</v>
       </c>
-      <c r="B180" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="B182" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>676</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="B183" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>677</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>700</v>
-      </c>
-      <c r="B183" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>701</v>
-      </c>
-      <c r="B184" t="s">
-        <v>218</v>
+      <c r="B184" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B185" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B188" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B189" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B190" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B191" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B193" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B194" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B195" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B196" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B197" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B198" t="s">
-        <v>147</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>723</v>
+      </c>
+      <c r="B199" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="B200" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>741</v>
-      </c>
-      <c r="B201" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B202" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B204" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B205" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B206" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B207" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B208" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B209" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B211" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B212" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B213" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="B214" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="B215" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B216" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B218" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B219" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B220" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B222" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B223" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="B225" t="s">
-        <v>173</v>
-      </c>
-      <c r="D225" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B226" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B227" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="D227" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B228" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>833</v>
+      </c>
+      <c r="B230" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>834</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>835</v>
       </c>
-      <c r="B230" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1010</v>
-      </c>
-      <c r="B234" t="s">
-        <v>180</v>
-      </c>
-      <c r="C234" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1011</v>
-      </c>
-      <c r="B235" t="s">
-        <v>181</v>
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>840</v>
+      </c>
+      <c r="B233" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B236" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B237" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B238" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1120</v>
+        <v>1015</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1121</v>
+        <v>1016</v>
       </c>
       <c r="B242" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B243" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B244" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B247" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B250" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1200</v>
+        <v>1129</v>
       </c>
       <c r="B252" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1250</v>
+        <v>1140</v>
       </c>
       <c r="B253" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>1200</v>
+      </c>
+      <c r="B254" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1250</v>
+      </c>
+      <c r="B255" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>1300</v>
       </c>
-      <c r="B254" t="s">
-        <v>193</v>
+      <c r="B256" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UAV\GroundStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B94A6-2D34-4789-9597-CB4E8C8F1475}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C37A54-974D-491D-9C99-7950759810D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="264">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,102 +876,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MissionReverse: Got a non-position mission item, ignoring it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL and GPS lost: flight termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, RETURNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW BATTERY, RETURN ADVISED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURN ADVISED!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, RETURN FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY, LANDING AT CURRENT POSITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL BATTERY,LANDING FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, RETURN FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUS BATTERY LEVEL,  LANDING FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: no valid data from Compass #%u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass #%u uncalibrated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass Sensors inconsistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preflight Fail: Compass Sensor #%u missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM DOES NOT SUPPORT SHUTDOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGEROUSLY LOW BATTERY, SHUT SYSTEM DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping compass use, check calibration on landing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaw Airmode requires the use of an Arm Switch</t>
+  </si>
+  <si>
     <t>Control high latency failed, no hl telemetry available</t>
-  </si>
-  <si>
-    <t>MissionReverse: Got a non-position mission item, ignoring it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL and GPS lost: flight termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL, RETURNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW BATTERY, RETURN ADVISED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY, RETURN ADVISED!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY, RETURNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY, RETURN FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY, LANDING AT CURRENT POSITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL BATTERY,LANDING FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL, RETURN FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL, LANDING IMMEDIATELY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUS BATTERY LEVEL,  LANDING FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTERY FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preflight Fail: no valid data from Compass #%u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preflight Fail: Compass #%u uncalibrated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preflight Fail: Compass Sensors inconsistent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preflight Fail: Compass Sensor #%u missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collision Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM DOES NOT SUPPORT SHUTDOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANGEROUSLY LOW BATTERY, SHUT SYSTEM DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stopping compass use, check calibration on landing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1758,28 +1762,28 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>260</v>
@@ -1787,39 +1791,39 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1827,47 +1831,47 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
         <v>240</v>
@@ -1875,882 +1879,882 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
+        <v>235</v>
+      </c>
+      <c r="C143" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>601</v>
+        <v>500</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>610</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>106</v>
+        <v>605</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>611</v>
-      </c>
-      <c r="B150" t="s">
-        <v>105</v>
+        <v>610</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B151" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B152" t="s">
         <v>107</v>
@@ -2758,821 +2762,829 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B153" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B154" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B155" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="B158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B159" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B161" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B165" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B166" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B175" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B180" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>674</v>
+      </c>
+      <c r="B182" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>675</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>676</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>676</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>677</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>700</v>
-      </c>
-      <c r="B185" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B187" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B193" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B194" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B196" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B197" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B198" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B199" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>723</v>
+      </c>
+      <c r="B200" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>725</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>740</v>
-      </c>
-      <c r="B202" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B203" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B205" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B206" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B208" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B209" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B210" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B211" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B212" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B213" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B214" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B215" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="B216" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B219" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B222" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B223" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B224" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B225" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B226" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B227" t="s">
-        <v>170</v>
-      </c>
-      <c r="D227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B228" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="D228" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B230" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>835</v>
+      </c>
+      <c r="B233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>840</v>
       </c>
-      <c r="B233" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1010</v>
-      </c>
-      <c r="B236" t="s">
-        <v>177</v>
-      </c>
-      <c r="C236" t="s">
-        <v>3</v>
-      </c>
-      <c r="D236" t="s">
-        <v>6</v>
+      <c r="B234" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B237" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B238" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B239" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B240" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B241" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B242" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B244" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B248" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B249" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B250" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B252" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B253" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="B255" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
+        <v>1250</v>
+      </c>
+      <c r="B256" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>1300</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>190</v>
       </c>
     </row>

--- a/报警id.xlsx
+++ b/报警id.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UAV\GroundStation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UAV\GroundStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C37A54-974D-491D-9C99-7950759810D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="267">
   <si>
     <t xml:space="preserve">消息id </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">MANUAL CONTROL LOST </t>
-  </si>
-  <si>
-    <t>ALL DATA LINKS LOST</t>
-  </si>
-  <si>
-    <t>RC and GPS lost: flight termination</t>
-  </si>
-  <si>
-    <t>settings load ERROR</t>
   </si>
   <si>
     <t>ERROR: %s", strerror(ret)</t>
@@ -884,14 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOW LATENCY DATA LINKS REGAINED, DEACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL LOW LATENCY DATA LINKS LOST, ACTIVATING HIGH LATENCY LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACTIVATING AVAILABLE HIGH LATENCY LINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -976,13 +958,44 @@
   </si>
   <si>
     <t>Control high latency failed, no hl telemetry available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data link lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High latency data link lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onboard controller lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autopilot off! Returning control to pilot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error loading settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoidance system not available</t>
+  </si>
+  <si>
+    <t>Mission rejected: takeoff waypoint required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission rejected: takeoff not first waypoint item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,11 +1355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1375,13 +1388,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1392,19 +1405,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>1010</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1418,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>1011</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,13 +1445,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>1012</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>1013</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1460,13 +1473,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>1014</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,10 +1487,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,7 +1514,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1513,7 +1526,7 @@
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,7 +1534,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1533,7 +1546,7 @@
         <v>1016</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,7 +1554,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E12">
         <v>1120</v>
@@ -1558,13 +1571,13 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13">
         <v>1121</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,13 +1585,13 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E14">
         <v>1122</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,13 +1599,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E15">
         <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,13 +1613,13 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>1124</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,13 +1627,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>1125</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,13 +1641,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E18">
         <v>1126</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,13 +1655,13 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E19">
         <v>1127</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,13 +1669,13 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E20">
         <v>1128</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1670,13 +1683,13 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E21">
         <v>1129</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,13 +1697,13 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>1130</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,13 +1711,13 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>1140</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,13 +1725,13 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E24">
         <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,13 +1739,13 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E25">
         <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,13 +1753,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>1300</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,7 +1767,7 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,7 +1775,7 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1783,7 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,60 +1791,60 @@
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1839,1753 +1852,1777 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B136" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B139" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
-      </c>
-      <c r="C143" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>232</v>
+      </c>
+      <c r="C144" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>601</v>
+        <v>500</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B146" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B147" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B149" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>610</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>106</v>
+        <v>605</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>611</v>
-      </c>
-      <c r="B151" t="s">
-        <v>105</v>
+        <v>610</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B153" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B154" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B155" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B156" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B157" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B158" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B160" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B161" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B162" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B163" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B166" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B168" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B169" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B171" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B172" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B173" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B174" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B175" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B176" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B178" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B180" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B181" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B182" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>674</v>
+      </c>
+      <c r="B183" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>675</v>
       </c>
-      <c r="B183" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>676</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>227</v>
+      <c r="B184" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>676</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>677</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>700</v>
-      </c>
-      <c r="B186" t="s">
-        <v>137</v>
+      <c r="B186" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>701</v>
-      </c>
-      <c r="B187" t="s">
-        <v>215</v>
+        <v>678</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>702</v>
-      </c>
-      <c r="B188" t="s">
-        <v>138</v>
+        <v>679</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B193" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B196" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B197" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B198" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B199" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B201" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>722</v>
+      </c>
+      <c r="B202" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="B203" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B204" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>742</v>
-      </c>
-      <c r="B205" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B206" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B207" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="B208" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="B209" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B210" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B211" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B212" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B213" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B214" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B215" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B216" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B217" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="B218" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="B219" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B220" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B221" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B223" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B224" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B225" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B228" t="s">
-        <v>170</v>
-      </c>
-      <c r="D228" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="B229" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="B230" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B231" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="D231" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B234" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1010</v>
-      </c>
-      <c r="B237" t="s">
-        <v>177</v>
-      </c>
-      <c r="C237" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1011</v>
-      </c>
-      <c r="B238" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>834</v>
+      </c>
+      <c r="B235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>835</v>
+      </c>
+      <c r="B236" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1012</v>
+        <v>840</v>
       </c>
       <c r="B239" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1013</v>
-      </c>
-      <c r="B240" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1014</v>
-      </c>
-      <c r="B241" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B242" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B243" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1120</v>
+        <v>1012</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1121</v>
+        <v>1013</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1122</v>
+        <v>1014</v>
       </c>
       <c r="B246" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1123</v>
+        <v>1015</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1124</v>
+        <v>1016</v>
       </c>
       <c r="B248" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B249" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B250" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B251" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B252" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B253" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="B254" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1200</v>
+        <v>1126</v>
       </c>
       <c r="B255" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1250</v>
+        <v>1127</v>
       </c>
       <c r="B256" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>1128</v>
+      </c>
+      <c r="B257" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1129</v>
+      </c>
+      <c r="B258" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1140</v>
+      </c>
+      <c r="B259" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1200</v>
+      </c>
+      <c r="B260" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1250</v>
+      </c>
+      <c r="B261" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>1300</v>
       </c>
-      <c r="B257" t="s">
-        <v>190</v>
+      <c r="B262" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
